--- a/data/trans_dic/IP74A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP74A5_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>68,66%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>79,65%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>9,53; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>42,12; 100,0</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,55%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>12,66; 84,63</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,3%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,02; 90,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,48; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,02; 91,75</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>62,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>65,4%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>36,48; 84,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>36,4; 91,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>45,2; 81,08</t>
         </is>
       </c>
     </row>
